--- a/medicine/Enfance/Annie_Groovie/Annie_Groovie.xlsx
+++ b/medicine/Enfance/Annie_Groovie/Annie_Groovie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie Trudelle, dite Annie Groovie, née le 11 avril 1970 à Trois-Rivières, est une auteure et illustratrice québécoise de littérature pour la jeunesse.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annie Groovie naît à Trois-Rivières. Lorsqu'elle a trois ans, sa famille déménage à Sainte-Foy, où elle grandit[1],[2]. Diplômée en arts plastiques au collégial et bachelière en communication graphique de l'université Laval, elle exerce le métier de conceptrice publicitaire pendant plusieurs années (entre autres pour l’agence Cossette) à Montréal, où elle habite depuis 1994.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annie Groovie naît à Trois-Rivières. Lorsqu'elle a trois ans, sa famille déménage à Sainte-Foy, où elle grandit,. Diplômée en arts plastiques au collégial et bachelière en communication graphique de l'université Laval, elle exerce le métier de conceptrice publicitaire pendant plusieurs années (entre autres pour l’agence Cossette) à Montréal, où elle habite depuis 1994.
 Adepte de la gymnastique et appréciant des arts du cirque, Annie Groovie est sélectionnée en 1997 par le Cirque du monde et part trois mois au Chili pour enseigner les arts du cirque aux enfants de la rue. Elle repart trois ans plus tard dans un contexte similaire, cette fois-ci en Afrique.
 En novembre 2002, alors conceptrice publicitaire à la pige, Annie Groovie crée le personnage de Léon, un cyclope en noir et blanc dont le tout premier titre (Léon et les expressions) est publié aux éditions de La Courte Échelle en juin 2004. En 2006, l’auteure et illustratrice se consacre à temps plein à son nouveau métier. Il s’ensuit la publication de plus d’une cinquantaine de livres. En décembre 2014, à la suite de la faillite de son éditeur, Annie Groovie fonde sa maison : Groovie éditions.
 Puis, après trois années d’auto-édition, l’auteure et illustratrice s’associe à un nouvel éditeur : Presses Aventure.
-Ses livres sont parfois décrits comme une création à mi-chemin entre la bande dessinée et l’album pour enfants[3].
-Depuis l’automne 2007, la télévision de Radio-Canada diffuse les dessins animés de Léon en capsules d’une minute[4].
-Les livres de Léon ont été traduits en arabe, en italien, en espagnol, en coréen et en chinois[3].
-Annie Groovie a remporté deux fois le prix Hackmatack.  Elle est invitée d'honneur au Salon international du livre de Québec 2010[5].
+Ses livres sont parfois décrits comme une création à mi-chemin entre la bande dessinée et l’album pour enfants.
+Depuis l’automne 2007, la télévision de Radio-Canada diffuse les dessins animés de Léon en capsules d’une minute.
+Les livres de Léon ont été traduits en arabe, en italien, en espagnol, en coréen et en chinois.
+Annie Groovie a remporté deux fois le prix Hackmatack.  Elle est invitée d'honneur au Salon international du livre de Québec 2010.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Collection Rigolons avec Léon
 2004 : Léon et les expressions, Éditions La Courte Échelle, réédité chez Presses Aventure
